--- a/BusinessConnectManagement/Uploads/Import/classStudent.xlsx
+++ b/BusinessConnectManagement/Uploads/Import/classStudent.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Captone Project 2022-2023\CaptoneSprint7\CapstoneProject\BusinessConnectManagement\Uploads\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6B4EF-ED68-446C-99C2-2276431DBE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC8AC30-0716-412B-9A60-233F99AED399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
   </bookViews>
@@ -36,71 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>testimport@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import</t>
-  </si>
-  <si>
-    <t>Mentor</t>
-  </si>
-  <si>
-    <t>testimport2@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import 2</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Test Import 3</t>
-  </si>
-  <si>
-    <t>testimport3@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>testimport4@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import 4</t>
-  </si>
-  <si>
-    <t>Test Import 5</t>
-  </si>
-  <si>
-    <t>Test Import 6</t>
-  </si>
-  <si>
-    <t>testimport5@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>testimport6@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import 7</t>
-  </si>
-  <si>
-    <t>testimport7@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import 8</t>
-  </si>
-  <si>
-    <t>testimport8@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import 9</t>
-  </si>
-  <si>
-    <t>testimport9@vanlanguni.vn</t>
-  </si>
-  <si>
     <t>Họ và tên</t>
   </si>
   <si>
@@ -110,25 +53,10 @@
     <t>Vai trò</t>
   </si>
   <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Test Import 10</t>
-  </si>
-  <si>
-    <t>testimport91@vanlanguni.vn</t>
-  </si>
-  <si>
     <t>Mã sinh viên</t>
   </si>
   <si>
     <t>Chuyên nghành</t>
-  </si>
-  <si>
-    <t>testimportStudent1@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Test Import Student</t>
   </si>
   <si>
     <t>Student</t>
@@ -492,16 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCDAC2E-CA66-4457-A8CB-0345096E4973}">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
@@ -511,325 +440,96 @@
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>123</v>
-      </c>
-      <c r="E5">
-        <v>346799117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>123</v>
-      </c>
-      <c r="E6">
-        <v>346799112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>123</v>
-      </c>
-      <c r="E7">
-        <v>346799112</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>12321</v>
-      </c>
-      <c r="E8">
-        <v>346799112</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>346799112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>346799112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>123</v>
-      </c>
-      <c r="E11">
-        <v>346799112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>123</v>
-      </c>
-      <c r="E12">
-        <v>346799112</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>123</v>
-      </c>
-      <c r="E13">
-        <v>346799112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>123</v>
-      </c>
-      <c r="E14">
-        <v>346799112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>123</v>
-      </c>
-      <c r="E15">
-        <v>346799113</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
